--- a/Assets/Hero.xlsx
+++ b/Assets/Hero.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14670"/>
+    <workbookView windowWidth="21000" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Administrator</author>
+    <author>Unknown User</author>
   </authors>
   <commentList>
     <comment ref="C2" authorId="0">
@@ -25,6 +25,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -33,6 +34,7 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -43,6 +45,15 @@
 4.刺客
 5.辅助</t>
         </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+  - 姜梁</t>
+        </r>
       </text>
     </comment>
     <comment ref="E3" authorId="0">
@@ -51,6 +62,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -58,12 +70,12 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+  - 姜梁</t>
         </r>
       </text>
     </comment>
@@ -72,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
   <si>
     <t>int</t>
   </si>
@@ -89,7 +101,7 @@
     <t>type</t>
   </si>
   <si>
-    <t xml:space="preserve"> skillDes</t>
+    <t>skillDes</t>
   </si>
   <si>
     <t>skillidArr</t>
@@ -107,10 +119,10 @@
     <t>agl</t>
   </si>
   <si>
-    <t>atkRange</t>
-  </si>
-  <si>
-    <t>takeDamageRange</t>
+    <t>atkRage</t>
+  </si>
+  <si>
+    <t>takeDamageRage</t>
   </si>
   <si>
     <t>maxRage</t>
@@ -203,19 +215,25 @@
     <t>5030,5031</t>
   </si>
   <si>
+    <t>504</t>
+  </si>
+  <si>
+    <t>赤焰麒麟</t>
+  </si>
+  <si>
+    <t>暴风龙卷：短时间内造成3段伤害，每段伤害对地方全体英雄造成攻击力200%的伤害，并附加伤害加深Buff。</t>
+  </si>
+  <si>
+    <t>5040,5041</t>
+  </si>
+  <si>
+    <t>505</t>
+  </si>
+  <si>
     <t>熔岩之主</t>
   </si>
   <si>
     <t>天将业火：从天而降一道业火，对后排敌人造成攻击力300%的伤害。</t>
-  </si>
-  <si>
-    <t>5040,5041</t>
-  </si>
-  <si>
-    <t>赤焰麒麟</t>
-  </si>
-  <si>
-    <t>暴风龙卷：短时间内造成3段伤害，每段伤害对地方全体英雄造成攻击力200%的伤害，并附加伤害加深Buff。</t>
   </si>
   <si>
     <t>5050,5051</t>
@@ -226,12 +244,25 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="25">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,14 +272,107 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,86 +386,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,15 +402,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,14 +415,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,19 +442,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF5B9BD5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD6EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,175 +628,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,53 +655,29 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,6 +693,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,13 +745,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,180 +769,181 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -993,7 +1053,7 @@
         <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -1028,7 +1088,7 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -1204,479 +1264,481 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="117.125" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="11" max="11" width="20.875" customWidth="1"/>
+    <col min="3" max="3" width="12.6666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="117.166666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.8333333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
+    <row r="1" customHeight="1" spans="1:12">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="2" t="s">
+    <row r="2" customHeight="1" spans="1:12">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="3">
+    <row r="3" customHeight="1" spans="1:12">
+      <c r="A3" s="4">
         <v>101</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <v>100000</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="4">
         <v>11000</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="4">
         <v>500</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="4">
         <v>850</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="3">
+    <row r="4" customHeight="1" spans="1:12">
+      <c r="A4" s="4">
         <v>102</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>70000</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="4">
         <v>7000</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="4">
         <v>300</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="4">
         <v>910</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="3">
+    <row r="5" customHeight="1" spans="1:12">
+      <c r="A5" s="4">
         <v>103</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>5</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>60000</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="4">
         <v>6000</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="4">
         <v>300</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="4">
         <v>980</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="3">
+    <row r="6" customHeight="1" spans="1:12">
+      <c r="A6" s="4">
         <v>104</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>4</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>150000</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="4">
         <v>12000</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="4">
         <v>350</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="4">
         <v>860</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="3">
+    <row r="7" customHeight="1" spans="1:12">
+      <c r="A7" s="4">
         <v>105</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>5</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>110000</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="4">
         <v>9000</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="4">
         <v>360</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="3">
+    <row r="8" customHeight="1" spans="1:12">
+      <c r="A8" s="4">
         <v>501</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>2</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>100000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="4">
         <v>10000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="4">
         <v>600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="4">
         <v>850</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="3">
+    <row r="9" customHeight="1" spans="1:12">
+      <c r="A9" s="4">
         <v>502</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>4</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>50000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="4">
         <v>15000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="4">
         <v>280</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="4">
         <v>990</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="3">
+    <row r="10" customHeight="1" spans="1:12">
+      <c r="A10" s="4">
         <v>503</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <v>1</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <v>160000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="4">
         <v>10000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="4">
         <v>750</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="4">
         <v>900</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="3">
-        <v>504</v>
-      </c>
-      <c r="B11" s="3" t="s">
+    <row r="11" customHeight="1" spans="1:12">
+      <c r="A11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="3">
+      <c r="B11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="4">
         <v>4</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="3">
+      <c r="E11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="4">
         <v>150000</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="4">
         <v>12000</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="4">
         <v>400</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="4">
         <v>890</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="3">
-        <v>505</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="3">
+    <row r="12" customHeight="1" spans="1:12">
+      <c r="A12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="4">
         <v>4</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="D12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="4">
         <v>170000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="4">
         <v>13000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="4">
         <v>500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="4">
         <v>940</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="4" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
